--- a/Conteudo/Layouts do jogo.xlsx
+++ b/Conteudo/Layouts do jogo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianca\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schmi\Documents\GitHub\2021gamet4-bianca-e-alisson\Conteudo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E99A9B-ED10-4B15-9797-D6680EBA92F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C5EE17-EA5D-4FF5-B746-09EF5783D451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{0B142173-238F-4730-919D-A327EE70452F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="6" xr2:uid="{0B142173-238F-4730-919D-A327EE70452F}"/>
   </bookViews>
   <sheets>
     <sheet name="map 1" sheetId="6" r:id="rId1"/>
@@ -2001,146 +2001,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>117475</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Retângulo: Cantos Arredondados 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD566C9-12D7-40F9-8730-02A8601B08E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3524250" y="6429375"/>
-          <a:ext cx="4943475" cy="482600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="2400">
-              <a:solidFill>
-                <a:srgbClr val="480048"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Iniciar</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Retângulo: Cantos Arredondados 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67729FFE-FF40-430F-A122-705AF3FCFFBF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3517900" y="6946900"/>
-          <a:ext cx="4943475" cy="482600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="2400">
-              <a:solidFill>
-                <a:srgbClr val="480048"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Sair</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>301625</xdr:colOff>
       <xdr:row>53</xdr:row>
@@ -3288,6 +3148,206 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190687</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>109258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>140260</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Agrupar 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C73DEE-6E27-4DD8-88E8-33D95023F28F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3563658" y="6205258"/>
+          <a:ext cx="4992220" cy="1499907"/>
+          <a:chOff x="3541246" y="6429375"/>
+          <a:chExt cx="4992220" cy="1499907"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="Retângulo: Cantos Arredondados 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD566C9-12D7-40F9-8730-02A8601B08E2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3547596" y="6429375"/>
+            <a:ext cx="4985497" cy="482600"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="2400">
+                <a:solidFill>
+                  <a:srgbClr val="480048"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>JOGAR</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="Retângulo: Cantos Arredondados 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67729FFE-FF40-430F-A122-705AF3FCFFBF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3541246" y="6946900"/>
+            <a:ext cx="4985497" cy="482600"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="2400">
+                <a:solidFill>
+                  <a:srgbClr val="480048"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>controles</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="Retângulo: Cantos Arredondados 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{092E0982-9D31-4BB1-B191-5466CC65E284}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3547969" y="7446682"/>
+            <a:ext cx="4985497" cy="482600"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="2400">
+                <a:solidFill>
+                  <a:srgbClr val="480048"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>sair</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9437,8 +9497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C148A10E-86B2-4F0D-89D7-C11619B1E705}">
   <dimension ref="A1:AM73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BI69" sqref="BI69"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AU29" sqref="AU29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Conteudo/Layouts do jogo.xlsx
+++ b/Conteudo/Layouts do jogo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianca\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianca\Documents\GitHub\2021gamet4-bianca-e-alisson\Conteudo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E99A9B-ED10-4B15-9797-D6680EBA92F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CA2366-6574-4B25-A2A1-E436A581B564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{0B142173-238F-4730-919D-A327EE70452F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0B142173-238F-4730-919D-A327EE70452F}"/>
   </bookViews>
   <sheets>
     <sheet name="map 1" sheetId="6" r:id="rId1"/>
@@ -151,9 +151,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF762700"/>
       <color rgb="FF480048"/>
       <color rgb="FF660066"/>
-      <color rgb="FF762700"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3590,8 +3590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA10F6F-187F-403F-8EDB-C58B1D6FC71F}">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9:T9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3967,8 +3967,8 @@
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
@@ -4560,7 +4560,7 @@
   <dimension ref="A1:AP22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AH32" sqref="AH32"/>
+      <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4947,8 +4947,8 @@
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
@@ -9437,7 +9437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C148A10E-86B2-4F0D-89D7-C11619B1E705}">
   <dimension ref="A1:AM73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="BI69" sqref="BI69"/>
     </sheetView>
   </sheetViews>

--- a/Conteudo/Layouts do jogo.xlsx
+++ b/Conteudo/Layouts do jogo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianca\Documents\GitHub\2021gamet4-bianca-e-alisson\Conteudo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianca\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CA2366-6574-4B25-A2A1-E436A581B564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E99A9B-ED10-4B15-9797-D6680EBA92F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0B142173-238F-4730-919D-A327EE70452F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{0B142173-238F-4730-919D-A327EE70452F}"/>
   </bookViews>
   <sheets>
     <sheet name="map 1" sheetId="6" r:id="rId1"/>
@@ -151,9 +151,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF762700"/>
       <color rgb="FF480048"/>
       <color rgb="FF660066"/>
+      <color rgb="FF762700"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3590,8 +3590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA10F6F-187F-403F-8EDB-C58B1D6FC71F}">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9:T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3967,8 +3967,8 @@
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
@@ -4560,7 +4560,7 @@
   <dimension ref="A1:AP22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+      <selection activeCell="AH32" sqref="AH32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4947,8 +4947,8 @@
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
@@ -9437,7 +9437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C148A10E-86B2-4F0D-89D7-C11619B1E705}">
   <dimension ref="A1:AM73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="BI69" sqref="BI69"/>
     </sheetView>
   </sheetViews>

--- a/Conteudo/Layouts do jogo.xlsx
+++ b/Conteudo/Layouts do jogo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schmi\Documents\GitHub\2021gamet4-bianca-e-alisson\Conteudo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianca\Documents\GitHub\2021gamet4-bianca-e-alisson\Conteudo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C5EE17-EA5D-4FF5-B746-09EF5783D451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EF1A41-A87B-45F3-A7D6-75EBD1236F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="6" xr2:uid="{0B142173-238F-4730-919D-A327EE70452F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{0B142173-238F-4730-919D-A327EE70452F}"/>
   </bookViews>
   <sheets>
     <sheet name="map 1" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="map 2 sugestão" sheetId="5" r:id="rId4"/>
     <sheet name="map 3" sheetId="8" r:id="rId5"/>
     <sheet name="map 3 sugestão" sheetId="9" r:id="rId6"/>
-    <sheet name="menu" sheetId="10" r:id="rId7"/>
+    <sheet name="map 4" sheetId="11" r:id="rId7"/>
+    <sheet name="menu" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -151,9 +152,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF762700"/>
       <color rgb="FF480048"/>
       <color rgb="FF660066"/>
-      <color rgb="FF762700"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4620,7 +4621,7 @@
   <dimension ref="A1:AP22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AH32" sqref="AH32"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5412,9 +5413,9 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -6571,7 +6572,7 @@
   <dimension ref="A1:AN22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+      <selection activeCell="AM28" sqref="AM28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6841,7 +6842,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="5"/>
+      <c r="O7" s="3"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -7202,7 +7203,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -7366,30 +7367,30 @@
       <c r="I20" s="4"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
       <c r="AJ20" s="2"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
@@ -7550,7 +7551,7 @@
   <dimension ref="A1:AJ22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AI20" sqref="C1:AI20"/>
+      <selection activeCell="AC31" sqref="AC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8519,7 +8520,7 @@
   <dimension ref="A1:AN22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AM31" sqref="AM31"/>
+      <selection activeCell="AL32" sqref="AL32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8643,7 +8644,7 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="7"/>
-      <c r="AG3" s="1"/>
+      <c r="AG3" s="3"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="2"/>
@@ -9494,10 +9495,979 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8B463F-16C7-430E-8317-E1B058C462F2}">
+  <dimension ref="A1:AJ22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AI31" sqref="AI31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="36" width="5" customWidth="1"/>
+    <col min="37" max="37" width="4.5703125" customWidth="1"/>
+    <col min="38" max="57" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="2"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="2"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="2"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="2"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="2"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="2"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="2"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="2"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="2"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="2"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="2"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="2"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="2"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="2"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="2"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="2"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="2"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="2"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="2"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="2"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>12</v>
+      </c>
+      <c r="O22">
+        <v>13</v>
+      </c>
+      <c r="P22">
+        <v>14</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+      <c r="R22">
+        <v>16</v>
+      </c>
+      <c r="S22">
+        <v>17</v>
+      </c>
+      <c r="T22">
+        <v>18</v>
+      </c>
+      <c r="U22">
+        <v>19</v>
+      </c>
+      <c r="V22">
+        <v>20</v>
+      </c>
+      <c r="W22">
+        <v>21</v>
+      </c>
+      <c r="X22">
+        <v>22</v>
+      </c>
+      <c r="Y22">
+        <v>23</v>
+      </c>
+      <c r="Z22">
+        <v>24</v>
+      </c>
+      <c r="AA22">
+        <v>25</v>
+      </c>
+      <c r="AB22">
+        <v>26</v>
+      </c>
+      <c r="AC22">
+        <v>27</v>
+      </c>
+      <c r="AD22">
+        <v>28</v>
+      </c>
+      <c r="AE22">
+        <v>29</v>
+      </c>
+      <c r="AF22">
+        <v>30</v>
+      </c>
+      <c r="AG22">
+        <v>31</v>
+      </c>
+      <c r="AH22">
+        <v>32</v>
+      </c>
+      <c r="AI22">
+        <v>33</v>
+      </c>
+      <c r="AJ22">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C148A10E-86B2-4F0D-89D7-C11619B1E705}">
   <dimension ref="A1:AM73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AU29" sqref="AU29"/>
     </sheetView>
   </sheetViews>

--- a/Conteudo/Layouts do jogo.xlsx
+++ b/Conteudo/Layouts do jogo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianca\Documents\GitHub\2021gamet4-bianca-e-alisson\Conteudo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EF1A41-A87B-45F3-A7D6-75EBD1236F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7729CDA3-0A75-44B3-997B-2AFA6794E9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{0B142173-238F-4730-919D-A327EE70452F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{0B142173-238F-4730-919D-A327EE70452F}"/>
   </bookViews>
   <sheets>
     <sheet name="map 1" sheetId="6" r:id="rId1"/>
@@ -4621,7 +4621,7 @@
   <dimension ref="A1:AP22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4707,7 +4707,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="6"/>
+      <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
@@ -4996,7 +4996,7 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
-      <c r="AI9" s="3"/>
+      <c r="AI9" s="6"/>
       <c r="AJ9" s="2"/>
       <c r="AO9" s="6"/>
       <c r="AP9" t="s">
@@ -6572,7 +6572,7 @@
   <dimension ref="A1:AN22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AM28" sqref="AM28"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7203,7 +7203,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -8519,7 +8519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEEB372-9C09-4E52-86CA-99BF55B745CD}">
   <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AL32" sqref="AL32"/>
     </sheetView>
   </sheetViews>
@@ -9498,7 +9498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8B463F-16C7-430E-8317-E1B058C462F2}">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AI31" sqref="AI31"/>
     </sheetView>
   </sheetViews>

--- a/Conteudo/Layouts do jogo.xlsx
+++ b/Conteudo/Layouts do jogo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianca\Documents\GitHub\2021gamet4-bianca-e-alisson\Conteudo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7729CDA3-0A75-44B3-997B-2AFA6794E9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9717F2B5-12CE-44C4-A340-B1A1BCBCA337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{0B142173-238F-4730-919D-A327EE70452F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{0B142173-238F-4730-919D-A327EE70452F}"/>
   </bookViews>
   <sheets>
     <sheet name="map 1" sheetId="6" r:id="rId1"/>
@@ -56,7 +56,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +105,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -133,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -144,6 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,6 +159,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE7E6E6"/>
       <color rgb="FF762700"/>
       <color rgb="FF480048"/>
       <color rgb="FF660066"/>
@@ -8519,7 +8527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEEB372-9C09-4E52-86CA-99BF55B745CD}">
   <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AL32" sqref="AL32"/>
     </sheetView>
   </sheetViews>
@@ -10467,8 +10475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C148A10E-86B2-4F0D-89D7-C11619B1E705}">
   <dimension ref="A1:AM73"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AU29" sqref="AU29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10744,7 +10752,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>

--- a/Conteudo/Layouts do jogo.xlsx
+++ b/Conteudo/Layouts do jogo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianca\Documents\GitHub\2021gamet4-bianca-e-alisson\Conteudo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9717F2B5-12CE-44C4-A340-B1A1BCBCA337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAA5C32-BB15-4AD9-AF87-8C36AC5E2999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{0B142173-238F-4730-919D-A327EE70452F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{0B142173-238F-4730-919D-A327EE70452F}"/>
   </bookViews>
   <sheets>
     <sheet name="map 1" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>trabalho a ser pego</t>
   </si>
@@ -42,15 +42,43 @@
   <si>
     <t>deixa o aluno lento</t>
   </si>
+  <si>
+    <t>tempos</t>
+  </si>
+  <si>
+    <t>bianca - 01:08</t>
+  </si>
+  <si>
+    <t>bianca - 01:03</t>
+  </si>
+  <si>
+    <t>bianca - 01:009</t>
+  </si>
+  <si>
+    <t>bianca - 00:59</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -151,6 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4626,10 +4655,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4664F8D6-9700-412C-9949-8B3F40F9E4BF}">
-  <dimension ref="A1:AP22"/>
+  <dimension ref="A1:BE32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4640,7 +4669,11 @@
     <col min="38" max="39" width="2.7109375" customWidth="1"/>
     <col min="40" max="40" width="1.5703125" customWidth="1"/>
     <col min="41" max="41" width="5.85546875" customWidth="1"/>
-    <col min="42" max="55" width="2.7109375" customWidth="1"/>
+    <col min="42" max="47" width="2.7109375" customWidth="1"/>
+    <col min="48" max="48" width="27.7109375" customWidth="1"/>
+    <col min="49" max="50" width="3.140625" customWidth="1"/>
+    <col min="51" max="55" width="2.7109375" customWidth="1"/>
+    <col min="57" max="57" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -5295,7 +5328,7 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="2"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -5335,7 +5368,7 @@
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5375,7 +5408,7 @@
       <c r="AI18" s="1"/>
       <c r="AJ18" s="2"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -5415,7 +5448,7 @@
       <c r="AI19" s="1"/>
       <c r="AJ19" s="2"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5455,7 +5488,7 @@
       <c r="AI20" s="3"/>
       <c r="AJ20" s="2"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -5495,7 +5528,7 @@
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0</v>
       </c>
@@ -5602,7 +5635,33 @@
         <v>34</v>
       </c>
     </row>
+    <row r="28" spans="1:57" ht="21" x14ac:dyDescent="0.35">
+      <c r="BE28" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:57" ht="21" x14ac:dyDescent="0.35">
+      <c r="BE29" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:57" ht="21" x14ac:dyDescent="0.35">
+      <c r="BE30" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:57" ht="21" x14ac:dyDescent="0.35">
+      <c r="BE31" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:57" ht="21" x14ac:dyDescent="0.35">
+      <c r="BE32" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10475,7 +10534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C148A10E-86B2-4F0D-89D7-C11619B1E705}">
   <dimension ref="A1:AM73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>

--- a/Conteudo/Layouts do jogo.xlsx
+++ b/Conteudo/Layouts do jogo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianca\Documents\GitHub\2021gamet4-bianca-e-alisson\Conteudo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAA5C32-BB15-4AD9-AF87-8C36AC5E2999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF8C2B8-0F9F-4E12-94D8-AC28094F7914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{0B142173-238F-4730-919D-A327EE70452F}"/>
+    <workbookView xWindow="2460" yWindow="1755" windowWidth="15375" windowHeight="8580" firstSheet="3" activeTab="5" xr2:uid="{0B142173-238F-4730-919D-A327EE70452F}"/>
   </bookViews>
   <sheets>
     <sheet name="map 1" sheetId="6" r:id="rId1"/>
@@ -188,8 +188,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF762700"/>
       <color rgb="FFE7E6E6"/>
-      <color rgb="FF762700"/>
       <color rgb="FF480048"/>
       <color rgb="FF660066"/>
     </mruColors>
@@ -4657,8 +4657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4664F8D6-9700-412C-9949-8B3F40F9E4BF}">
   <dimension ref="A1:BE32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6639,7 +6639,7 @@
   <dimension ref="A1:AN22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="AF18" sqref="AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6919,7 +6919,7 @@
       <c r="V7" s="6"/>
       <c r="W7" s="2"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="4"/>
+      <c r="Y7" s="1"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="2"/>
@@ -7114,7 +7114,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="4"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="4"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -7430,8 +7430,8 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="4"/>
@@ -8586,8 +8586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEEB372-9C09-4E52-86CA-99BF55B745CD}">
   <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AL32" sqref="AL32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
